--- a/public/bieumau/phieuxuat.xlsx
+++ b/public/bieumau/phieuxuat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\New Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15151F9B-C1BA-4496-960E-D06B13B78CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A20356-F588-425F-99A3-C1D847BE8BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
+    <workbookView xWindow="10920" yWindow="204" windowWidth="11208" windowHeight="11652" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>PHIẾU XUẤT HÀNG KHO 
 KIÊM VẬN CHUYỂN NỘI BỘ</t>
@@ -230,9 +230,6 @@
     <t>Địa chỉ đơn vị /địa chỉ kho (Address):</t>
   </si>
   <si>
-    <t>Lô E, KCN Tràng Duệ, thuộc KKT Đình Vũ Cát Hải, xã Hồng Phong, huyện An Dương, TP.Hải Phòng, Việt Nam</t>
-  </si>
-  <si>
     <r>
       <t>Tên bộ phận nhận (</t>
     </r>
@@ -301,9 +298,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <r>
@@ -424,15 +418,6 @@
       </rPr>
       <t>(Amount)</t>
     </r>
-  </si>
-  <si>
-    <t>Bảng mạch điện tử</t>
-  </si>
-  <si>
-    <t>LG001</t>
-  </si>
-  <si>
-    <t>Cái</t>
   </si>
   <si>
     <t>Tổng</t>
@@ -569,34 +554,16 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -611,32 +578,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,25 +643,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57896</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442632</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70596</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>651579</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="10" name="Picture 9" descr="LG이노텍">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2BA16B-0ABB-43FE-B748-7B1606FD5E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1BE046-0D7E-941C-831B-CE8C17CF51D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,8 +684,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5683922" y="5391896"/>
-          <a:ext cx="1479550" cy="835660"/>
+          <a:off x="1284514" y="130627"/>
+          <a:ext cx="1745914" cy="881743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,380 +698,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516964</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2637CBCE-80EB-47BC-9374-B677BB9B483F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1803400" y="316230"/>
-          <a:ext cx="1776804" cy="541441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442632</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7785A3-A107-45A2-A2DD-F650F9E98C1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5683922" y="5391896"/>
-          <a:ext cx="1479550" cy="835660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516964</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711B6FBA-FDB0-413D-A9F0-D0A852CFA491}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1803400" y="316230"/>
-          <a:ext cx="1776804" cy="541441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442632</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B83389-520A-43C3-878D-8D6F7A2D1DFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5683922" y="5391896"/>
-          <a:ext cx="1479550" cy="835660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>516964</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1917C229-DA94-4342-9FDF-1FF18A816478}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1803400" y="316230"/>
-          <a:ext cx="1776804" cy="541441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1413,374 +1024,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E81B0AB-7FD5-433C-BA78-52C2B1A8A510}">
-  <dimension ref="C3:O30"/>
+  <dimension ref="C3:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="3:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3"/>
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="6" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F5" s="4" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F6" s="4" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E8" s="3">
         <v>201723640</v>
       </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
+      <c r="K11" s="6"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="D14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="3:15" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="17" t="s">
+      <c r="E14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="13"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="13"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <f>SUM(I15:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="3:15" ht="23.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="20">
-        <v>50</v>
-      </c>
-      <c r="J15" s="22">
-        <v>8</v>
-      </c>
-      <c r="K15" s="22">
-        <v>400</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="3:15" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="20" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20">
-        <f>SUM(I15:I21)</f>
-        <v>50</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20">
-        <f>SUM(K15:K21)</f>
-        <v>400</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I27" s="19"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="3:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="12"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="3:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
+  <mergeCells count="15">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/bieumau/phieuxuat.xlsx
+++ b/public/bieumau/phieuxuat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A20356-F588-425F-99A3-C1D847BE8BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230EDC8-C291-466C-AF06-8328F3B218FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="204" windowWidth="11208" windowHeight="11652" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
+    <workbookView xWindow="2304" yWindow="1308" windowWidth="14976" windowHeight="11652" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>PHIẾU XUẤT HÀNG KHO 
 KIÊM VẬN CHUYỂN NỘI BỘ</t>
@@ -231,25 +231,6 @@
   </si>
   <si>
     <r>
-      <t>Tên bộ phận nhận (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Department received):</t>
-    </r>
-  </si>
-  <si>
-    <t>MFG team</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Lệnh điều động nội bộ </t>
     </r>
     <r>
@@ -418,9 +399,6 @@
       </rPr>
       <t>(Amount)</t>
     </r>
-  </si>
-  <si>
-    <t>Tổng</t>
   </si>
   <si>
     <t xml:space="preserve">Thủ kho </t>
@@ -442,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,14 +464,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -551,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -570,8 +540,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -596,32 +566,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E81B0AB-7FD5-433C-BA78-52C2B1A8A510}">
-  <dimension ref="C3:M29"/>
+  <dimension ref="C3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,50 +1011,50 @@
   <sheetData>
     <row r="3" spans="3:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1105,63 +1072,59 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="K11" s="6"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1177,138 +1140,58 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="3:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="13"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+    <row r="16" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="13"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+    <row r="17" spans="5:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="13"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+    <row r="18" spans="5:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="13"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="13"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="3:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13">
-        <f>I22</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13">
-        <f>SUM(I15:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="3:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="G26" s="12"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="3:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="12"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="5:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E9:J9"/>
@@ -1318,6 +1201,12 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/bieumau/phieuxuat.xlsx
+++ b/public/bieumau/phieuxuat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230EDC8-C291-466C-AF06-8328F3B218FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDACDE33-CE7C-4035-BDA0-1BD30E72442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1308" windowWidth="14976" windowHeight="11652" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04E5723C-A141-452C-914C-0B17AD22FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -569,26 +569,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,7 +994,7 @@
   <dimension ref="C3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,50 +1011,50 @@
   <sheetData>
     <row r="3" spans="3:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="3:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1072,12 +1072,12 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
@@ -1087,10 +1087,10 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1145,41 +1145,41 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="5:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="5:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
@@ -1192,6 +1192,12 @@
     <row r="23" spans="5:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E9:J9"/>
@@ -1201,12 +1207,6 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
